--- a/Data_science_outputs_highlands/Graphs/Third/3/Montlhy_consumption_3.xlsx
+++ b/Data_science_outputs_highlands/Graphs/Third/3/Montlhy_consumption_3.xlsx
@@ -475,16 +475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>15841.76522351668</v>
+        <v>9317.312951633348</v>
       </c>
       <c r="C2" t="n">
-        <v>2144.876813533337</v>
+        <v>7216.783949066682</v>
       </c>
       <c r="D2" t="n">
-        <v>4750.517147983333</v>
+        <v>573.2035998333333</v>
       </c>
       <c r="E2" t="n">
-        <v>1619.4986809</v>
+        <v>1370.929148383333</v>
       </c>
       <c r="F2" t="n">
         <v>11.904</v>
@@ -498,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14764.88888281668</v>
+        <v>8716.466727700014</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4445.676937883333</v>
+        <v>554.8219711166666</v>
       </c>
       <c r="E3" t="n">
-        <v>1529.160677633333</v>
+        <v>1288.9730523</v>
       </c>
       <c r="F3" t="n">
         <v>32.016</v>
@@ -521,16 +521,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15879.70982175002</v>
+        <v>9354.929355083348</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4722.491294366667</v>
+        <v>558.8028333</v>
       </c>
       <c r="E4" t="n">
-        <v>1609.607563283333</v>
+        <v>1380.3078389</v>
       </c>
       <c r="F4" t="n">
         <v>56.544</v>
@@ -544,16 +544,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15375.35874265002</v>
+        <v>8983.096927583349</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>4574.35195935</v>
+        <v>553.75185915</v>
       </c>
       <c r="E5" t="n">
-        <v>1531.436485333333</v>
+        <v>1328.7534425</v>
       </c>
       <c r="F5" t="n">
         <v>76.68000000000001</v>
@@ -567,16 +567,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15823.27343366668</v>
+        <v>9374.982435666683</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4719.943838033333</v>
+        <v>569.1977402</v>
       </c>
       <c r="E6" t="n">
-        <v>1597.732946783333</v>
+        <v>1341.98350315</v>
       </c>
       <c r="F6" t="n">
         <v>101.928</v>
@@ -590,16 +590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15321.52453578335</v>
+        <v>8993.422898566681</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4611.8192375</v>
+        <v>558.0087817333333</v>
       </c>
       <c r="E7" t="n">
-        <v>1587.797811866667</v>
+        <v>1317.584559</v>
       </c>
       <c r="F7" t="n">
         <v>120.6</v>
@@ -613,16 +613,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15866.79379281668</v>
+        <v>9374.436318116683</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4715.111734566667</v>
+        <v>566.1092237833334</v>
       </c>
       <c r="E8" t="n">
-        <v>1635.229943383333</v>
+        <v>1399.399088716667</v>
       </c>
       <c r="F8" t="n">
         <v>147.312</v>
@@ -636,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15864.34766783335</v>
+        <v>9340.003349183349</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>4753.588836816666</v>
+        <v>586.9380172499999</v>
       </c>
       <c r="E9" t="n">
-        <v>1606.75128105</v>
+        <v>1348.404047433333</v>
       </c>
       <c r="F9" t="n">
         <v>170.376</v>
@@ -659,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15274.97284831668</v>
+        <v>9028.551450866682</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>4583.997648099999</v>
+        <v>554.9282167166666</v>
       </c>
       <c r="E10" t="n">
-        <v>1568.516446866667</v>
+        <v>1339.402039466667</v>
       </c>
       <c r="F10" t="n">
         <v>186.84</v>
@@ -682,16 +682,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15802.87435660002</v>
+        <v>9356.741357150016</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>4762.770363</v>
+        <v>575.6802344833333</v>
       </c>
       <c r="E11" t="n">
-        <v>1644.872778166667</v>
+        <v>1379.752266333333</v>
       </c>
       <c r="F11" t="n">
         <v>215.76</v>
@@ -705,16 +705,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15417.93724246668</v>
+        <v>9055.350746466682</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>4572.220292433333</v>
+        <v>542.3609757166666</v>
       </c>
       <c r="E12" t="n">
-        <v>1593.347775283333</v>
+        <v>1324.802408666667</v>
       </c>
       <c r="F12" t="n">
         <v>230.76</v>
@@ -728,16 +728,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15352.29808638335</v>
+        <v>9034.485366600014</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4586.699489833333</v>
+        <v>558.9300830666667</v>
       </c>
       <c r="E13" t="n">
-        <v>1576.185377066667</v>
+        <v>1295.1415401</v>
       </c>
       <c r="F13" t="n">
         <v>252.36</v>
